--- a/biology/Médecine/1590_en_santé_et_médecine/1590_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1590_en_santé_et_médecine/1590_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1590_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1590_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1590 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1590_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1590_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le jardin botanique de Leyde (Hortus Botanicus Leiden) « est officiellement créé, comme Hortus publicus, par le collège des curateurs de l'université  [...] et sera ouvert en 1594[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le jardin botanique de Leyde (Hortus Botanicus Leiden) « est officiellement créé, comme Hortus publicus, par le collège des curateurs de l'université  [...] et sera ouvert en 1594 ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1590_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1590_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1580-1590 : fl. Philip Barrow, auteur d'une Methode of phisicke (1583[2]), manuel plusieurs fois réédité et promis à une grande diffusion[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1580-1590 : fl. Philip Barrow, auteur d'une Methode of phisicke (1583), manuel plusieurs fois réédité et promis à une grande diffusion.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1590_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1590_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Marie de Maupeou  (morte en 1681), mère de Nicolas Fouquet, dont les Remèdes charitables seront publiés à titre posthume, en 1685[4],[5].
-Vers 1590[6] : Jean Chrysostome Magnen (mort vers 1679[6]), médecin franc-comtois.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marie de Maupeou  (morte en 1681), mère de Nicolas Fouquet, dont les Remèdes charitables seront publiés à titre posthume, en 1685,.
+Vers 1590 : Jean Chrysostome Magnen (mort vers 1679), médecin franc-comtois.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1590_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1590_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,12 +620,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>25 août : Giulio Alessandrini (né en 1506), médecin des empereurs Ferdinand Ier, Maximilien II et Rodolphe II.
-23 novembre : André Thevet (né en 1516), explorateur français « qui acclimata les premiers plants [de tabac] dans son jardin angoumoisin à son retour de l'expédition de Villegaignon au Brésil[7],[8] ».
-20 décembre : Ambroise Paré (né en 1509 ou 1510), chirurgien et anatomiste français[9].
-Castore Durante (né en 1529), médecin, herboriste et poète italien, dans les États pontificaux[10],[11].</t>
+23 novembre : André Thevet (né en 1516), explorateur français « qui acclimata les premiers plants [de tabac] dans son jardin angoumoisin à son retour de l'expédition de Villegaignon au Brésil, ».
+20 décembre : Ambroise Paré (né en 1509 ou 1510), chirurgien et anatomiste français.
+Castore Durante (né en 1529), médecin, herboriste et poète italien, dans les États pontificaux,.</t>
         </is>
       </c>
     </row>
